--- a/dds/environmental.xlsx
+++ b/dds/environmental.xlsx
@@ -2,29 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\dds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="16380" windowHeight="7720" tabRatio="347"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="16380" windowHeight="7720" tabRatio="375"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
     <sheet name="Types" sheetId="2" r:id="rId2"/>
     <sheet name="Labels" sheetId="3" r:id="rId3"/>
     <sheet name="Units" sheetId="4" r:id="rId4"/>
-    <sheet name="Tables" sheetId="5" r:id="rId5"/>
-    <sheet name="Valid Values" sheetId="6" r:id="rId6"/>
+    <sheet name="Valid Values" sheetId="6" r:id="rId5"/>
+    <sheet name="Tables" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ROOT!$A$1:$H$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Valid Values'!$A$1:$X$32</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="362">
   <si>
     <t>Identifier</t>
   </si>
@@ -59,42 +63,18 @@
     <t>Initial Noise</t>
   </si>
   <si>
-    <t>farm.fishery_restricted_area</t>
-  </si>
-  <si>
     <t>Fishery Restriction Area</t>
   </si>
   <si>
-    <t>farm.hydro_eis</t>
-  </si>
-  <si>
-    <t>farm.hydro_season</t>
-  </si>
-  <si>
-    <t>farm.hydro_confidence</t>
-  </si>
-  <si>
-    <t>farm.elec_eis</t>
-  </si>
-  <si>
     <t>Dictionary of the EIS - Electrical stage</t>
   </si>
   <si>
-    <t>farm.elec_season</t>
-  </si>
-  <si>
-    <t>farm.elec_confidence</t>
-  </si>
-  <si>
     <t>Dictionary of the Confidence Levels - Electrical stage</t>
   </si>
   <si>
     <t>farm.initial_magnetic_field</t>
   </si>
   <si>
-    <t>farm.hydro_collision_risk_weight</t>
-  </si>
-  <si>
     <t>Weight for the Collision Risk  (hydro module)</t>
   </si>
   <si>
@@ -104,9 +84,6 @@
     <t>Weight for the Energy Modification (hydro module)</t>
   </si>
   <si>
-    <t>farm.hydro_reef_effect_weight</t>
-  </si>
-  <si>
     <t>Weight for the Reef Effect  (hydro module)</t>
   </si>
   <si>
@@ -116,9 +93,6 @@
     <t>Weight for the Reserve Effect  (hydro module)</t>
   </si>
   <si>
-    <t>farm.hydro_resting_place_weight</t>
-  </si>
-  <si>
     <t>Weight for the Resting Place  (hydro module)</t>
   </si>
   <si>
@@ -128,9 +102,6 @@
     <t>Weight for the Turbidity Risk (hydro module)</t>
   </si>
   <si>
-    <t>farm.hydro_underwater_noise_risk_weight</t>
-  </si>
-  <si>
     <t>Weight for the Underwater Noise Risk  (hydro module)</t>
   </si>
   <si>
@@ -392,9 +363,6 @@
     <t>Noise Device &gt; 200 dB re 1muPa</t>
   </si>
   <si>
-    <t>farm.hydro_recommendation_dict</t>
-  </si>
-  <si>
     <t>RecommendationDict</t>
   </si>
   <si>
@@ -422,36 +390,21 @@
     <t>Weight for the Collision Risk  (electrical module)</t>
   </si>
   <si>
-    <t>farm.elec_collision_risk_weight</t>
-  </si>
-  <si>
     <t>Cable Buried</t>
   </si>
   <si>
     <t>Cable Not Buried</t>
   </si>
   <si>
-    <t>farm.elec_elec_field_weight</t>
-  </si>
-  <si>
     <t>Weight for the Electrical Fields Risk (electrical module)</t>
   </si>
   <si>
-    <t>farm.elec_footprint_weight</t>
-  </si>
-  <si>
     <t>Weight for the Footprint Weight (electrical cable)</t>
   </si>
   <si>
-    <t>farm.elec_magnetic_field_weight</t>
-  </si>
-  <si>
     <t>Weight for the Magnetic Fields Risk (electrical module)</t>
   </si>
   <si>
-    <t>farm.elec_reef_effect_weight</t>
-  </si>
-  <si>
     <t>Weight for the Reef Effect Risk (electrical module)</t>
   </si>
   <si>
@@ -470,9 +423,6 @@
     <t>Weight for the Reserve Effect  (electrical module)</t>
   </si>
   <si>
-    <t>farm.elec_resting_place_weight</t>
-  </si>
-  <si>
     <t>Weight for the Resting Place  (electrical module)</t>
   </si>
   <si>
@@ -482,12 +432,6 @@
     <t>Weight for the Temperature Modification  (electrical module)</t>
   </si>
   <si>
-    <t>farm.elec_temp_modif_weight</t>
-  </si>
-  <si>
-    <t>farm.elec_underwater_noise_risk_weight</t>
-  </si>
-  <si>
     <t>Weight for the Underwater Noise Risk  (electrical module)</t>
   </si>
   <si>
@@ -506,36 +450,21 @@
     <t>Noise Electrical Components &gt; 200 dB re 1muPa</t>
   </si>
   <si>
-    <t>farm.hydro_measured_turbidity</t>
-  </si>
-  <si>
     <t>Measured Turbidity (hydro module)</t>
   </si>
   <si>
-    <t>farm.hydro_measured_noise</t>
-  </si>
-  <si>
     <t>Measured Noise(hydro module)</t>
   </si>
   <si>
-    <t>farm.elec_measured_noise</t>
-  </si>
-  <si>
     <t>Measured Noise(electrical module)</t>
   </si>
   <si>
     <t>farm.initial_elec_field</t>
   </si>
   <si>
-    <t>farm.elec_measured_elec_field</t>
-  </si>
-  <si>
     <t>Measured Electrical Field (electrical module)</t>
   </si>
   <si>
-    <t>farm.elec_measured_magnetic_field</t>
-  </si>
-  <si>
     <t>Measured Magnetic Field (electrical module)</t>
   </si>
   <si>
@@ -545,18 +474,6 @@
     <t>\mu T</t>
   </si>
   <si>
-    <t>farm.moor_collision_risk_weight</t>
-  </si>
-  <si>
-    <t>farm.moor_footprint_weight</t>
-  </si>
-  <si>
-    <t>farm.moor_reef_effect_weight</t>
-  </si>
-  <si>
-    <t>farm.moor_underwater_noise_risk_weight</t>
-  </si>
-  <si>
     <t>Weight for the Collision Risk  (mooring and foundation module)</t>
   </si>
   <si>
@@ -590,21 +507,9 @@
     <t>No Data</t>
   </si>
   <si>
-    <t>farm.moor_measured_noise</t>
-  </si>
-  <si>
     <t>Measured Noise(mooring module)</t>
   </si>
   <si>
-    <t>farm.elec_recommendation_dict</t>
-  </si>
-  <si>
-    <t>farm.moor_recommendation_dict</t>
-  </si>
-  <si>
-    <t>farm.moor_season</t>
-  </si>
-  <si>
     <t>Electric Fields</t>
   </si>
   <si>
@@ -617,12 +522,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>farm.moor_confidence</t>
-  </si>
-  <si>
-    <t>farm.moor_eis</t>
-  </si>
-  <si>
     <t>farm.initial_temperature</t>
   </si>
   <si>
@@ -632,9 +531,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>farm.elec_measured_temperature</t>
-  </si>
-  <si>
     <t>Measured Temperature (electrical module)</t>
   </si>
   <si>
@@ -701,15 +597,6 @@
     <t>Impact</t>
   </si>
   <si>
-    <t>farm.hydro_global_eis</t>
-  </si>
-  <si>
-    <t>farm.elec_global_eis</t>
-  </si>
-  <si>
-    <t>farm.moor_global_eis</t>
-  </si>
-  <si>
     <t>Chafing 0 dB re 1muPa</t>
   </si>
   <si>
@@ -803,21 +690,6 @@
     <t>Table of Impacts per Month - Moorings and Foundation Stage</t>
   </si>
   <si>
-    <t>farm.install_chemical_pollution_weight</t>
-  </si>
-  <si>
-    <t>farm.install_collision_risk_weight</t>
-  </si>
-  <si>
-    <t>farm.install_footprint_weight</t>
-  </si>
-  <si>
-    <t>farm.install_underwater_noise_risk_weight</t>
-  </si>
-  <si>
-    <t>farm.install_turbidity_risk_weight</t>
-  </si>
-  <si>
     <t>Weight for the Collision Risk  (installation module)</t>
   </si>
   <si>
@@ -860,57 +732,30 @@
     <t>Noise Vessels or Tools &gt; 200 dB re 1muPa</t>
   </si>
   <si>
-    <t>farm.install_season</t>
-  </si>
-  <si>
     <t>Table of Impacts per Month - Installation Stage</t>
   </si>
   <si>
-    <t>farm.install_confidence</t>
-  </si>
-  <si>
-    <t>farm.install_eis</t>
-  </si>
-  <si>
     <t>Dictionary of the Confidence Levels - Installation Stage</t>
   </si>
   <si>
     <t>Dictionary of the EIS - Installation Stage</t>
   </si>
   <si>
-    <t>farm.install_global_eis</t>
-  </si>
-  <si>
     <t>Global EIS -  - Installation Stage</t>
   </si>
   <si>
-    <t>farm.install_recommendation_dict</t>
-  </si>
-  <si>
     <t>Dictionary of Recommendation for the Installation Stage</t>
   </si>
   <si>
-    <t>farm.install_measured_noise</t>
-  </si>
-  <si>
-    <t>farm.install_measured_turbidity</t>
-  </si>
-  <si>
     <t>Chemical Pollution</t>
   </si>
   <si>
     <t>Collision Risk Vessel</t>
   </si>
   <si>
-    <t>farm.install_import_chem_pollutant</t>
-  </si>
-  <si>
     <t>Import of Chemical Pollutant - Installation Stage</t>
   </si>
   <si>
-    <t>farm.global_eis</t>
-  </si>
-  <si>
     <t>Global EIS -  - All  Stages</t>
   </si>
   <si>
@@ -1013,42 +858,6 @@
     <t>Monthly Observation of Receptors</t>
   </si>
   <si>
-    <t>farm.operat_collision_risk_weight</t>
-  </si>
-  <si>
-    <t>farm.operat_footprint_weight</t>
-  </si>
-  <si>
-    <t>farm.operat_turbidity_risk_weight</t>
-  </si>
-  <si>
-    <t>farm.operat_chemical_pollution_weight</t>
-  </si>
-  <si>
-    <t>farm.operat_underwater_noise_risk_weight</t>
-  </si>
-  <si>
-    <t>farm.operat_measured_turbidity</t>
-  </si>
-  <si>
-    <t>farm.operat_measured_noise</t>
-  </si>
-  <si>
-    <t>farm.operation_vessel_average_size</t>
-  </si>
-  <si>
-    <t>farm.operat_global_eis</t>
-  </si>
-  <si>
-    <t>farm.operat_eis</t>
-  </si>
-  <si>
-    <t>farm.operat_confidence</t>
-  </si>
-  <si>
-    <t>farm.operat_season</t>
-  </si>
-  <si>
     <t>Dictionary of Recommendation for the Operation and Maintenance Stage</t>
   </si>
   <si>
@@ -1100,12 +909,6 @@
     <t>Global EIS -  Operation and Maintenance Stage</t>
   </si>
   <si>
-    <t>farm.operat_import_chem_pollutant</t>
-  </si>
-  <si>
-    <t>farm.operat_recommendation_dict</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -1113,19 +916,224 @@
   </si>
   <si>
     <t>Auto Only</t>
+  </si>
+  <si>
+    <t>project.elec_collision_risk_weight</t>
+  </si>
+  <si>
+    <t>project.elec_confidence</t>
+  </si>
+  <si>
+    <t>project.elec_eis</t>
+  </si>
+  <si>
+    <t>project.elec_elec_field_weight</t>
+  </si>
+  <si>
+    <t>project.elec_footprint_weight</t>
+  </si>
+  <si>
+    <t>project.elec_global_eis</t>
+  </si>
+  <si>
+    <t>project.elec_magnetic_field_weight</t>
+  </si>
+  <si>
+    <t>project.elec_measured_elec_field</t>
+  </si>
+  <si>
+    <t>project.elec_measured_magnetic_field</t>
+  </si>
+  <si>
+    <t>project.elec_measured_noise</t>
+  </si>
+  <si>
+    <t>project.elec_measured_temperature</t>
+  </si>
+  <si>
+    <t>project.elec_recommendation_dict</t>
+  </si>
+  <si>
+    <t>project.elec_reef_effect_weight</t>
+  </si>
+  <si>
+    <t>project.elec_resting_place_weight</t>
+  </si>
+  <si>
+    <t>project.elec_season</t>
+  </si>
+  <si>
+    <t>project.elec_temp_modif_weight</t>
+  </si>
+  <si>
+    <t>project.elec_underwater_noise_risk_weight</t>
+  </si>
+  <si>
+    <t>project.hydro_collision_risk_weight</t>
+  </si>
+  <si>
+    <t>device.hydro_reef_effect_weight</t>
+  </si>
+  <si>
+    <t>device.hydro_underwater_noise_risk_weight</t>
+  </si>
+  <si>
+    <t>project.install_chemical_pollution_weight</t>
+  </si>
+  <si>
+    <t>project.install_collision_risk_weight</t>
+  </si>
+  <si>
+    <t>project.install_footprint_weight</t>
+  </si>
+  <si>
+    <t>project.install_turbidity_risk_weight</t>
+  </si>
+  <si>
+    <t>project.install_underwater_noise_risk_weight</t>
+  </si>
+  <si>
+    <t>project.moor_collision_risk_weight</t>
+  </si>
+  <si>
+    <t>project.moor_footprint_weight</t>
+  </si>
+  <si>
+    <t>project.moor_reef_effect_weight</t>
+  </si>
+  <si>
+    <t>project.moor_underwater_noise_risk_weight</t>
+  </si>
+  <si>
+    <t>project.operat_chemical_pollution_weight</t>
+  </si>
+  <si>
+    <t>project.operat_collision_risk_weight</t>
+  </si>
+  <si>
+    <t>project.operat_footprint_weight</t>
+  </si>
+  <si>
+    <t>project.operat_turbidity_risk_weight</t>
+  </si>
+  <si>
+    <t>project.operat_underwater_noise_risk_weight</t>
+  </si>
+  <si>
+    <t>project.fishery_restricted_area</t>
+  </si>
+  <si>
+    <t>project.global_eis</t>
+  </si>
+  <si>
+    <t>project.hydro_confidence</t>
+  </si>
+  <si>
+    <t>project.hydro_eis</t>
+  </si>
+  <si>
+    <t>project.hydro_global_eis</t>
+  </si>
+  <si>
+    <t>project.hydro_measured_noise</t>
+  </si>
+  <si>
+    <t>project.hydro_measured_turbidity</t>
+  </si>
+  <si>
+    <t>project.hydro_recommendation_dict</t>
+  </si>
+  <si>
+    <t>project.hydro_season</t>
+  </si>
+  <si>
+    <t>project.install_confidence</t>
+  </si>
+  <si>
+    <t>project.install_eis</t>
+  </si>
+  <si>
+    <t>project.install_global_eis</t>
+  </si>
+  <si>
+    <t>project.install_import_chem_pollutant</t>
+  </si>
+  <si>
+    <t>project.install_measured_noise</t>
+  </si>
+  <si>
+    <t>project.install_measured_turbidity</t>
+  </si>
+  <si>
+    <t>project.install_recommendation_dict</t>
+  </si>
+  <si>
+    <t>project.install_season</t>
+  </si>
+  <si>
+    <t>project.moor_confidence</t>
+  </si>
+  <si>
+    <t>project.moor_eis</t>
+  </si>
+  <si>
+    <t>project.moor_global_eis</t>
+  </si>
+  <si>
+    <t>project.moor_measured_noise</t>
+  </si>
+  <si>
+    <t>project.moor_recommendation_dict</t>
+  </si>
+  <si>
+    <t>project.moor_season</t>
+  </si>
+  <si>
+    <t>project.operat_confidence</t>
+  </si>
+  <si>
+    <t>project.operat_eis</t>
+  </si>
+  <si>
+    <t>project.operat_global_eis</t>
+  </si>
+  <si>
+    <t>project.operat_import_chem_pollutant</t>
+  </si>
+  <si>
+    <t>project.operat_measured_noise</t>
+  </si>
+  <si>
+    <t>project.operat_measured_turbidity</t>
+  </si>
+  <si>
+    <t>project.operat_recommendation_dict</t>
+  </si>
+  <si>
+    <t>project.operat_season</t>
+  </si>
+  <si>
+    <t>project.operat_vessel_average_size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1160,7 +1168,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1189,6 +1197,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1221,28 +1247,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1250,15 +1279,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
+    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
+    <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1342,7 +1386,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 5">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1368,7 +1412,7 @@
         <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="7F7F7F"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="F79646"/>
@@ -1626,14 +1670,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+      <selection pane="topRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1647,7 +1691,7 @@
     <col min="7" max="7" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,1108 +1705,1337 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>360</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" t="s">
-        <v>207</v>
-      </c>
+      <c r="D20" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" t="s">
-        <v>206</v>
-      </c>
+    <row r="21" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" t="s">
-        <v>205</v>
-      </c>
+    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="23" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" t="s">
-        <v>248</v>
-      </c>
-      <c r="D41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" t="s">
-        <v>249</v>
-      </c>
-      <c r="D42" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" t="s">
-        <v>250</v>
-      </c>
-      <c r="D43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>284</v>
-      </c>
-      <c r="B44" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" t="s">
-        <v>285</v>
-      </c>
-      <c r="D44" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
-      <c r="D45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
-      <c r="D47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
-      <c r="D48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>280</v>
-      </c>
-      <c r="B49" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>281</v>
-      </c>
-      <c r="B50" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" t="s">
-        <v>283</v>
-      </c>
-      <c r="D50" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>258</v>
-      </c>
-      <c r="D53" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>279</v>
-      </c>
-      <c r="D54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>264</v>
-      </c>
-      <c r="D55" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>261</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>265</v>
-      </c>
-      <c r="D56" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>266</v>
-      </c>
-      <c r="D57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>263</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>267</v>
-      </c>
-      <c r="D58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>259</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>268</v>
-      </c>
-      <c r="D59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>292</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>294</v>
-      </c>
-      <c r="B61" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" t="s">
-        <v>295</v>
-      </c>
-      <c r="D61" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>289</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>301</v>
-      </c>
-      <c r="B64" t="s">
-        <v>302</v>
-      </c>
-      <c r="C64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>327</v>
-      </c>
-      <c r="B65" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" t="s">
-        <v>328</v>
-      </c>
-      <c r="D65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>329</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>346</v>
-      </c>
-      <c r="D66" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>330</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>347</v>
-      </c>
-      <c r="D67" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>331</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>348</v>
-      </c>
-      <c r="D68" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>332</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>349</v>
-      </c>
-      <c r="D69" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>333</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>350</v>
-      </c>
-      <c r="D70" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>334</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>342</v>
-      </c>
-      <c r="D71" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>335</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>344</v>
-      </c>
-      <c r="D72" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>336</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>351</v>
-      </c>
-      <c r="D73" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>358</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>352</v>
-      </c>
-      <c r="D74" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>337</v>
-      </c>
-      <c r="B75" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" t="s">
-        <v>356</v>
-      </c>
-      <c r="D75" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>338</v>
-      </c>
-      <c r="B76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" t="s">
-        <v>353</v>
-      </c>
-      <c r="D76" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>339</v>
-      </c>
-      <c r="B77" t="s">
-        <v>222</v>
-      </c>
-      <c r="C77" t="s">
-        <v>354</v>
-      </c>
-      <c r="D77" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>340</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>355</v>
-      </c>
-      <c r="D78" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>359</v>
-      </c>
-      <c r="B79" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" t="s">
-        <v>341</v>
-      </c>
-      <c r="D79" t="s">
-        <v>341</v>
+      <c r="D79" s="16" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H79">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <sortState ref="A2:H79">
+      <sortCondition ref="A1:A79"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:M73">
     <sortCondition ref="C1"/>
   </sortState>
@@ -2789,28 +3062,28 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2827,266 +3100,266 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>141</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>162</v>
+        <v>335</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>336</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -3094,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -3102,163 +3375,163 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>176</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:16384" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -19645,165 +19918,165 @@
     </row>
     <row r="44" spans="1:16384" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:16384" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="F48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="H48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="I48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="J48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="K48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="L48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="M48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="N48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="O48" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -19820,10 +20093,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -19840,62 +20113,62 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -19929,331 +20202,331 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>191</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -20261,66 +20534,66 @@
         <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="O12" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -20348,19 +20621,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -20368,103 +20641,103 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>162</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -20474,6 +20747,664 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+  </sheetPr>
+  <dimension ref="A1:X32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1025" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" t="s">
+        <v>257</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="s">
+        <v>262</v>
+      </c>
+      <c r="N31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" t="s">
+        <v>264</v>
+      </c>
+      <c r="P31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>266</v>
+      </c>
+      <c r="R31" t="s">
+        <v>267</v>
+      </c>
+      <c r="S31" t="s">
+        <v>268</v>
+      </c>
+      <c r="T31" t="s">
+        <v>269</v>
+      </c>
+      <c r="U31" t="s">
+        <v>270</v>
+      </c>
+      <c r="V31" t="s">
+        <v>271</v>
+      </c>
+      <c r="W31" t="s">
+        <v>272</v>
+      </c>
+      <c r="X31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32" t="s">
+        <v>178</v>
+      </c>
+      <c r="M32" t="s">
+        <v>184</v>
+      </c>
+      <c r="N32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:X32">
+    <sortState ref="A2:X32">
+      <sortCondition ref="A1:A32"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -20492,654 +21423,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
-  <dimension ref="A1:X32"/>
-  <sheetViews>
-    <sheetView topLeftCell="R28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF64" sqref="A34:AF64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="41.54296875"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="1023" max="1025" width="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" t="s">
-        <v>231</v>
-      </c>
-      <c r="F20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B23" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" t="s">
-        <v>274</v>
-      </c>
-      <c r="D23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E23" t="s">
-        <v>276</v>
-      </c>
-      <c r="F23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" t="s">
-        <v>304</v>
-      </c>
-      <c r="C26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E26" t="s">
-        <v>307</v>
-      </c>
-      <c r="F26" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" t="s">
-        <v>309</v>
-      </c>
-      <c r="H26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I26" t="s">
-        <v>311</v>
-      </c>
-      <c r="J26" t="s">
-        <v>312</v>
-      </c>
-      <c r="K26" t="s">
-        <v>313</v>
-      </c>
-      <c r="L26" t="s">
-        <v>314</v>
-      </c>
-      <c r="M26" t="s">
-        <v>315</v>
-      </c>
-      <c r="N26" t="s">
-        <v>316</v>
-      </c>
-      <c r="O26" t="s">
-        <v>317</v>
-      </c>
-      <c r="P26" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>319</v>
-      </c>
-      <c r="R26" t="s">
-        <v>320</v>
-      </c>
-      <c r="S26" t="s">
-        <v>321</v>
-      </c>
-      <c r="T26" t="s">
-        <v>322</v>
-      </c>
-      <c r="U26" t="s">
-        <v>323</v>
-      </c>
-      <c r="V26" t="s">
-        <v>324</v>
-      </c>
-      <c r="W26" t="s">
-        <v>325</v>
-      </c>
-      <c r="X26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F27" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" t="s">
-        <v>211</v>
-      </c>
-      <c r="H27" t="s">
-        <v>218</v>
-      </c>
-      <c r="I27" t="s">
-        <v>212</v>
-      </c>
-      <c r="J27" t="s">
-        <v>219</v>
-      </c>
-      <c r="K27" t="s">
-        <v>213</v>
-      </c>
-      <c r="L27" t="s">
-        <v>214</v>
-      </c>
-      <c r="M27" t="s">
-        <v>220</v>
-      </c>
-      <c r="N27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B30" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" t="s">
-        <v>275</v>
-      </c>
-      <c r="E30" t="s">
-        <v>276</v>
-      </c>
-      <c r="F30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>332</v>
-      </c>
-      <c r="B32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
